--- a/data/output/FV2504_FV2410/UTILMD/44060.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44060.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5866" uniqueCount="452">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="452">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1457,6 +1457,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U261" totalsRowShown="0">
+  <autoFilter ref="A1:U261"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1746,7 +1776,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14352,5 +14385,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44060.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44060.xlsx
@@ -2650,7 +2650,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4720,7 +4720,7 @@
         <v>437</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4882,7 +4882,7 @@
         <v>437</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5948,7 +5948,7 @@
         <v>437</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7468,7 +7468,7 @@
         <v>441</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9738,7 +9738,7 @@
         <v>442</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10500,7 +10500,7 @@
         <v>443</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11108,7 +11108,7 @@
         <v>442</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11270,7 +11270,7 @@
         <v>443</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12082,7 +12082,7 @@
         <v>442</v>
       </c>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -12298,7 +12298,7 @@
         <v>444</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -12444,7 +12444,7 @@
         <v>445</v>
       </c>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12662,7 +12662,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13034,7 +13034,7 @@
         <v>448</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13446,7 +13446,7 @@
         <v>448</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -13796,7 +13796,7 @@
         <v>449</v>
       </c>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -13996,7 +13996,7 @@
         <v>450</v>
       </c>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -14140,7 +14140,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -14440,7 +14440,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -14598,7 +14598,7 @@
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="4"/>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N235" s="2" t="s">
@@ -14970,7 +14970,7 @@
         <v>443</v>
       </c>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -15820,7 +15820,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N259" s="2"/>
